--- a/tabelas_excel/SENAI-SPMEDIGROUP-2TM-EXCEL.xlsx
+++ b/tabelas_excel/SENAI-SPMEDIGROUP-2TM-EXCEL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50473694808\Desktop\Arquivos\SENAI-SPMEDIGROUP-2TM\tabelas_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50473694808\Desktop\senai-spmedgroup-1sp-2tm\tabelas_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="2676"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -929,7 +929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1170,12 +1170,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1464,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1490,20 +1484,20 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" customHeight="1">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1">
       <c r="B3" s="60" t="s">
@@ -1800,16 +1794,16 @@
     <row r="11" spans="1:13" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:13" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="112"/>
-      <c r="G13" s="110" t="s">
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="110"/>
+      <c r="G13" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="112"/>
+      <c r="H13" s="110"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="B14" s="8" t="s">
@@ -2195,7 +2189,7 @@
       <c r="G35" s="104"/>
       <c r="H35" s="104"/>
       <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
+      <c r="J35" s="105"/>
       <c r="K35" s="39"/>
     </row>
     <row r="36" spans="2:11" ht="14.25" customHeight="1">
@@ -2281,10 +2275,10 @@
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B40" s="110" t="s">
+      <c r="B40" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="113"/>
+      <c r="C40" s="111"/>
       <c r="D40" s="1"/>
       <c r="E40" s="106" t="s">
         <v>73</v>
